--- a/project/Backlog.xlsx
+++ b/project/Backlog.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8BDE70-47BD-4274-9EEF-389591F13BB9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388B7B43-3D14-423E-9E9A-C5CDB11FC329}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -342,9 +342,6 @@
     <t>今日宜忌</t>
   </si>
   <si>
-    <t>作为养生用户，我希望能看到我的体质所适宜的和忌讳的，以便更好调养身体。</t>
-  </si>
-  <si>
     <t>Initial Feature</t>
   </si>
   <si>
@@ -355,61 +352,33 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>作为养生用户，我希望可以每天打开时都可以看到我所在地的最新的天气情况。</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>温度</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>作为养生用户，我希望可以每天打开时都可以看到我所在地的最新的温度。</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>搜索</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>作为养生用户，我希望能快速搜索我想知道的相关内容。</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>体质报告</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>作为养生用户，我希望详细了解自身体质情况、体质特征、调理的方式以及判断该体质的科学依据等。</t>
-  </si>
-  <si>
     <t>调理方案</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>作为养生用户，我希望通过我测试过的体质报告，显示详细的药膳调理、起居调摄、健身于我身体有益的调理方案。</t>
-  </si>
-  <si>
     <t>天气相关指数</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>作为养生用户，我希望可以显示当日天气指数的提醒。</t>
-  </si>
-  <si>
     <t>个人资料</t>
-  </si>
-  <si>
-    <t>作为养生用户，我希望能够随时修改我的个人资料。里面包括我的头像、昵称、个性签名、性别、生日、所在地区，注册手机号的内容</t>
   </si>
   <si>
     <t>个人动态</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>作为养生用户，我希望我能查看我曾经发过的动态，以便于我进行查看、删除、分享的操作</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> Done</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -418,26 +387,14 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>作为养生用户，我希望能够查看我关注的用户，以便于我去查看我关注的人的动态或者进行取消关注的操作</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>个人收藏</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>作为养生用户，我希望能直接查看我曾经收藏的动态和推荐的文章，以便于我找到自己曾经收藏感兴趣的养生文章</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 体质报告</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>作为养生用户，我希望详细了解自身体质情况、体质特征、调理的方式以及判断该体质的科学依据等</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>Initial Feature</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -446,18 +403,10 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>作为养生用户，我希望可以退出登录。</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>清除缓存</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>作为养生用户，我希望可以清除缓存</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>Not Done</t>
   </si>
   <si>
@@ -465,15 +414,7 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>作为书友，我希望能够通过第三方分享这个应用到QQ、微信或或者微博</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>评价应用</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为养生用户，我希望自己可以向开发者提出我的建议。</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -498,25 +439,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>作为普通用户，我希望能够直接进入APP，以便我可以初步了解该APP。</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>注册账号</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为养生用户，我希望拥有独立账号，以便于我可以进行登录操作。</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -533,10 +457,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>作为养生用户，我希望可以登录账号，以便于我可以进行体质测试、发布动态、收藏推文、制定计划等操作。</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">
 发布动态</t>
     <phoneticPr fontId="17" type="noConversion"/>
@@ -676,6 +596,82 @@
   <si>
     <t>Not Done</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个养生用户，我希望可以退出登录。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个养生用户，我希望可以清除缓存</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个养生用户，我希望能够通过第三方分享这个应用到QQ、微信或或者微博</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个养生用户，我希望自己可以向开发者提出我的建议。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个养生用户，我希望能看到我的体质所适宜的和忌讳的，以便更好调养身体。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个养生用户，我希望可以每天打开时都可以看到我所在地的最新的天气情况。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个养生用户，我希望可以每天打开时都可以看到我所在地的最新的温度。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个养生用户，我希望能快速搜索我想知道的相关内容。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个养生用户，我希望详细了解自身体质情况、体质特征、调理的方式以及判断该体质的科学依据等。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个养生用户，我希望通过我测试过的体质报告，显示详细的药膳调理、起居调摄、健身于我身体有益的调理方案。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个养生用户，我希望可以显示当日天气指数的提醒。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个养生用户，我希望能够随时修改我的个人资料。里面包括我的头像、昵称、个性签名、性别、生日、所在地区，注册手机号的内容</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个养生用户，我希望能直接查看我曾经收藏的动态和推荐的文章，以便于我找到自己曾经收藏感兴趣的养生文章</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个养生用户，我希望详细了解自身体质情况、体质特征、调理的方式以及判断该体质的科学依据等</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个养生用户，我希望拥有独立账号，以便于我可以进行登录操作。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个养生用户，我希望可以登录账号，以便于我可以进行体质测试、发布动态、收藏推文、制定计划等操作。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个养生用户，我希望我能查看我曾经发过的动态，以便于我进行查看、删除、分享的操作</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个养生用户，我希望能够查看我关注的用户，以便于我去查看我关注的人的动态或者进行取消关注的操作</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个普通用户，我希望能够直接进入APP，以便我可以初步了解该APP。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1449,6 +1445,174 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="2" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="9" fillId="5" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="9" fillId="5" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="16" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="16" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="16" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="16" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="16" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="19" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1465,174 +1629,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="2" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="9" fillId="5" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="9" fillId="5" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="16" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="16" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="16" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="16" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="16" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="19" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2532,1652 +2528,1652 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE2BEF8-1FD2-4A89-8E07-099FCF31F9AD}">
   <dimension ref="A1:AA39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="118"/>
-    <col min="2" max="2" width="13.375" style="119" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="119" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="78" customWidth="1"/>
-    <col min="5" max="5" width="16.25" style="78" customWidth="1"/>
-    <col min="6" max="6" width="95.25" style="78" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="78" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="78"/>
+    <col min="1" max="1" width="9" style="111"/>
+    <col min="2" max="2" width="13.375" style="112" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="112" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="71" customWidth="1"/>
+    <col min="5" max="5" width="16.25" style="71" customWidth="1"/>
+    <col min="6" max="6" width="95.25" style="71" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="71" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="74" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="70"/>
-      <c r="B1" s="122" t="s">
+    <row r="1" spans="1:27" s="67" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="63"/>
+      <c r="B1" s="115" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
     </row>
     <row r="2" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="120">
+      <c r="A2" s="113">
         <v>21</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
     </row>
     <row r="3" spans="1:27" ht="72.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="82" t="s">
+      <c r="E3" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="82" t="s">
+      <c r="F3" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="83" t="s">
+      <c r="G3" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="H3" s="83" t="s">
+      <c r="H3" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="I3" s="84" t="s">
+      <c r="I3" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="J3" s="85" t="s">
+      <c r="J3" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="K3" s="85" t="s">
+      <c r="K3" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="L3" s="80" t="s">
+      <c r="L3" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="M3" s="80" t="s">
+      <c r="M3" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="N3" s="80" t="s">
+      <c r="N3" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="O3" s="80" t="s">
+      <c r="O3" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="P3" s="80" t="s">
+      <c r="P3" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="Q3" s="83" t="s">
+      <c r="Q3" s="76" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="86">
+      <c r="A4" s="79">
         <v>1</v>
       </c>
-      <c r="B4" s="87">
+      <c r="B4" s="80">
         <v>1</v>
       </c>
-      <c r="C4" s="87">
+      <c r="C4" s="80">
         <v>1</v>
       </c>
-      <c r="D4" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="E4" s="87" t="s">
+      <c r="D4" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="89" t="s">
+      <c r="F4" s="82" t="s">
+        <v>153</v>
+      </c>
+      <c r="G4" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="G4" s="88" t="s">
+      <c r="H4" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="H4" s="90" t="s">
+      <c r="I4" s="84">
+        <v>2</v>
+      </c>
+      <c r="J4" s="85">
         <v>93</v>
       </c>
-      <c r="I4" s="91">
-        <v>2</v>
-      </c>
-      <c r="J4" s="92">
-        <v>93</v>
-      </c>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92">
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85">
         <v>4</v>
       </c>
-      <c r="N4" s="93"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="92"/>
-      <c r="Q4" s="90"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="83"/>
     </row>
     <row r="5" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="86">
+      <c r="A5" s="79">
         <v>2</v>
       </c>
-      <c r="B5" s="87">
+      <c r="B5" s="80">
         <v>1</v>
       </c>
-      <c r="C5" s="87">
+      <c r="C5" s="80">
         <v>1</v>
       </c>
-      <c r="D5" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="E5" s="87" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="G5" s="88" t="s">
+      <c r="D5" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="87" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="H5" s="90" t="s">
-        <v>93</v>
-      </c>
-      <c r="I5" s="91">
+      <c r="I5" s="84">
         <v>2</v>
       </c>
-      <c r="J5" s="92">
+      <c r="J5" s="85">
         <v>90</v>
       </c>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="90"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="83"/>
     </row>
     <row r="6" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="86">
+      <c r="A6" s="79">
         <v>3</v>
       </c>
-      <c r="B6" s="87">
+      <c r="B6" s="80">
         <v>1</v>
       </c>
-      <c r="C6" s="87">
+      <c r="C6" s="80">
         <v>1</v>
       </c>
-      <c r="D6" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="E6" s="87" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6" s="95" t="s">
-        <v>97</v>
-      </c>
-      <c r="G6" s="88" t="s">
+      <c r="D6" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="80" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="88" t="s">
+        <v>155</v>
+      </c>
+      <c r="G6" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="H6" s="90" t="s">
-        <v>93</v>
-      </c>
-      <c r="I6" s="91">
+      <c r="I6" s="84">
         <v>2</v>
       </c>
-      <c r="J6" s="92">
+      <c r="J6" s="85">
         <v>90</v>
       </c>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="92"/>
-      <c r="Q6" s="90"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="83"/>
     </row>
     <row r="7" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="86">
+      <c r="A7" s="79">
         <v>4</v>
       </c>
-      <c r="B7" s="87">
+      <c r="B7" s="80">
         <v>1</v>
       </c>
-      <c r="C7" s="87">
+      <c r="C7" s="80">
         <v>1</v>
       </c>
-      <c r="D7" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="E7" s="87" t="s">
-        <v>98</v>
-      </c>
-      <c r="F7" s="95" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" s="88" t="s">
+      <c r="D7" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="80" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="88" t="s">
+        <v>156</v>
+      </c>
+      <c r="G7" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="H7" s="90" t="s">
-        <v>93</v>
-      </c>
-      <c r="I7" s="91">
+      <c r="I7" s="84">
         <v>2</v>
       </c>
-      <c r="J7" s="92">
+      <c r="J7" s="85">
         <v>95</v>
       </c>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="90"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="85"/>
+      <c r="Q7" s="83"/>
     </row>
     <row r="8" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="86">
+      <c r="A8" s="79">
         <v>5</v>
       </c>
-      <c r="B8" s="87">
+      <c r="B8" s="80">
         <v>1</v>
       </c>
-      <c r="C8" s="87">
+      <c r="C8" s="80">
         <v>1</v>
       </c>
-      <c r="D8" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="E8" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="F8" s="95" t="s">
-        <v>101</v>
-      </c>
-      <c r="G8" s="88" t="s">
+      <c r="D8" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="H8" s="90" t="s">
-        <v>93</v>
-      </c>
-      <c r="I8" s="91">
+      <c r="I8" s="84">
         <v>2</v>
       </c>
-      <c r="J8" s="92">
+      <c r="J8" s="85">
         <v>99</v>
       </c>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="92"/>
-      <c r="P8" s="92"/>
-      <c r="Q8" s="90"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="83"/>
     </row>
     <row r="9" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="86">
+      <c r="A9" s="79">
         <v>6</v>
       </c>
-      <c r="B9" s="87">
+      <c r="B9" s="80">
         <v>1</v>
       </c>
-      <c r="C9" s="87">
+      <c r="C9" s="80">
         <v>1</v>
       </c>
-      <c r="D9" s="88" t="s">
+      <c r="D9" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" s="80" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="88" t="s">
         <v>158</v>
       </c>
-      <c r="E9" s="87" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="95" t="s">
-        <v>103</v>
-      </c>
-      <c r="G9" s="88" t="s">
+      <c r="G9" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="H9" s="90" t="s">
-        <v>93</v>
-      </c>
-      <c r="I9" s="91">
+      <c r="I9" s="84">
         <v>2</v>
       </c>
-      <c r="J9" s="92">
+      <c r="J9" s="85">
         <v>96</v>
       </c>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="90"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="83"/>
     </row>
     <row r="10" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="86">
+      <c r="A10" s="79">
         <v>7</v>
       </c>
-      <c r="B10" s="87">
+      <c r="B10" s="80">
         <v>1</v>
       </c>
-      <c r="C10" s="87">
+      <c r="C10" s="80">
         <v>1</v>
       </c>
-      <c r="D10" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="E10" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" s="95" t="s">
-        <v>105</v>
-      </c>
-      <c r="G10" s="88" t="s">
+      <c r="D10" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="88" t="s">
+        <v>159</v>
+      </c>
+      <c r="G10" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="H10" s="90" t="s">
-        <v>93</v>
-      </c>
-      <c r="I10" s="91">
+      <c r="I10" s="84">
         <v>2</v>
       </c>
-      <c r="J10" s="92">
+      <c r="J10" s="85">
         <v>90</v>
       </c>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="92"/>
-      <c r="Q10" s="90"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="85"/>
+      <c r="Q10" s="83"/>
     </row>
     <row r="11" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="86">
+      <c r="A11" s="79">
         <v>8</v>
       </c>
-      <c r="B11" s="87">
+      <c r="B11" s="80">
         <v>1</v>
       </c>
-      <c r="C11" s="87">
+      <c r="C11" s="80">
         <v>1</v>
       </c>
-      <c r="D11" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="E11" s="87" t="s">
-        <v>106</v>
-      </c>
-      <c r="F11" s="89" t="s">
-        <v>107</v>
-      </c>
-      <c r="G11" s="88" t="s">
+      <c r="D11" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="82" t="s">
+        <v>160</v>
+      </c>
+      <c r="G11" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="H11" s="90" t="s">
-        <v>93</v>
-      </c>
-      <c r="I11" s="91">
+      <c r="I11" s="84">
         <v>4</v>
       </c>
-      <c r="J11" s="92">
+      <c r="J11" s="85">
         <v>98</v>
       </c>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
-      <c r="Q11" s="90"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="85"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="83"/>
     </row>
     <row r="12" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="86">
+      <c r="A12" s="79">
         <v>9</v>
       </c>
-      <c r="B12" s="87">
+      <c r="B12" s="80">
         <v>1</v>
       </c>
-      <c r="C12" s="87">
+      <c r="C12" s="80">
         <v>1</v>
       </c>
-      <c r="D12" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="E12" s="96" t="s">
-        <v>113</v>
-      </c>
-      <c r="F12" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="G12" s="88" t="s">
-        <v>92</v>
-      </c>
-      <c r="H12" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="I12" s="91">
+      <c r="D12" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="90" t="s">
+        <v>161</v>
+      </c>
+      <c r="G12" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="I12" s="84">
         <v>4</v>
       </c>
-      <c r="J12" s="87">
+      <c r="J12" s="80">
         <v>93</v>
       </c>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87">
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="80">
         <v>4</v>
       </c>
-      <c r="N12" s="93">
-        <v>0</v>
-      </c>
-      <c r="O12" s="87"/>
-      <c r="P12" s="87"/>
-      <c r="Q12" s="88"/>
+      <c r="N12" s="86">
+        <v>0</v>
+      </c>
+      <c r="O12" s="80"/>
+      <c r="P12" s="80"/>
+      <c r="Q12" s="81"/>
     </row>
     <row r="13" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="86">
+      <c r="A13" s="79">
         <v>10</v>
       </c>
-      <c r="B13" s="87">
+      <c r="B13" s="80">
         <v>1</v>
       </c>
-      <c r="C13" s="87">
+      <c r="C13" s="80">
         <v>1</v>
       </c>
-      <c r="D13" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="E13" s="96" t="s">
-        <v>115</v>
-      </c>
-      <c r="F13" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="G13" s="90" t="s">
-        <v>117</v>
-      </c>
-      <c r="H13" s="90" t="s">
-        <v>110</v>
-      </c>
-      <c r="I13" s="91">
+      <c r="D13" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="90" t="s">
+        <v>162</v>
+      </c>
+      <c r="G13" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="I13" s="84">
         <v>24</v>
       </c>
-      <c r="J13" s="92">
+      <c r="J13" s="85">
         <v>98</v>
       </c>
-      <c r="K13" s="92"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="92">
+      <c r="K13" s="85"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="85">
         <v>24</v>
       </c>
-      <c r="N13" s="93">
-        <v>0</v>
-      </c>
-      <c r="O13" s="92"/>
-      <c r="P13" s="92"/>
-      <c r="Q13" s="90"/>
+      <c r="N13" s="86">
+        <v>0</v>
+      </c>
+      <c r="O13" s="85"/>
+      <c r="P13" s="85"/>
+      <c r="Q13" s="83"/>
     </row>
     <row r="14" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="86">
+      <c r="A14" s="79">
         <v>11</v>
       </c>
-      <c r="B14" s="96">
+      <c r="B14" s="89">
         <v>1</v>
       </c>
-      <c r="C14" s="96">
+      <c r="C14" s="89">
         <v>1</v>
       </c>
-      <c r="D14" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="E14" s="96" t="s">
-        <v>129</v>
-      </c>
-      <c r="F14" s="98" t="s">
-        <v>130</v>
-      </c>
-      <c r="G14" s="90" t="s">
-        <v>92</v>
-      </c>
-      <c r="H14" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="I14" s="91">
+      <c r="D14" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="91" t="s">
+        <v>163</v>
+      </c>
+      <c r="G14" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" s="84">
         <v>2</v>
       </c>
-      <c r="J14" s="92">
+      <c r="J14" s="85">
         <v>99</v>
       </c>
-      <c r="M14" s="92">
+      <c r="M14" s="85">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="86">
+      <c r="A15" s="79">
         <v>12</v>
       </c>
-      <c r="B15" s="96">
+      <c r="B15" s="89">
         <v>1</v>
       </c>
-      <c r="C15" s="96">
+      <c r="C15" s="89">
         <v>1</v>
       </c>
-      <c r="D15" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="E15" s="96" t="s">
-        <v>131</v>
-      </c>
-      <c r="F15" s="98" t="s">
-        <v>132</v>
-      </c>
-      <c r="G15" s="90" t="s">
-        <v>92</v>
-      </c>
-      <c r="H15" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="I15" s="91">
+      <c r="D15" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" s="91" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" s="84">
         <v>2</v>
       </c>
-      <c r="J15" s="92">
+      <c r="J15" s="85">
         <v>99</v>
       </c>
-      <c r="M15" s="92">
+      <c r="M15" s="85">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="86">
+      <c r="A16" s="79">
         <v>13</v>
       </c>
-      <c r="B16" s="99">
+      <c r="B16" s="92">
         <v>1</v>
       </c>
-      <c r="C16" s="99">
+      <c r="C16" s="92">
         <v>1</v>
       </c>
-      <c r="D16" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="E16" s="100" t="s">
-        <v>137</v>
-      </c>
-      <c r="F16" s="101" t="s">
-        <v>138</v>
-      </c>
-      <c r="G16" s="102" t="s">
-        <v>135</v>
-      </c>
-      <c r="H16" s="102" t="s">
-        <v>136</v>
-      </c>
-      <c r="I16" s="103">
+      <c r="D16" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="E16" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="G16" s="95" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" s="95" t="s">
+        <v>117</v>
+      </c>
+      <c r="I16" s="96">
         <v>4</v>
       </c>
-      <c r="J16" s="100">
+      <c r="J16" s="93">
         <v>96</v>
       </c>
-      <c r="K16" s="100"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="100">
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93">
         <v>4</v>
       </c>
-      <c r="N16" s="104">
-        <v>0</v>
-      </c>
-      <c r="O16" s="100"/>
-      <c r="P16" s="100"/>
-      <c r="Q16" s="102"/>
-      <c r="R16" s="105"/>
-      <c r="S16" s="105"/>
-      <c r="T16" s="105"/>
-      <c r="U16" s="105"/>
-      <c r="V16" s="105"/>
-      <c r="W16" s="105"/>
-      <c r="X16" s="105"/>
-      <c r="Y16" s="105"/>
-      <c r="Z16" s="105"/>
-      <c r="AA16" s="105"/>
+      <c r="N16" s="97">
+        <v>0</v>
+      </c>
+      <c r="O16" s="93"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="95"/>
+      <c r="R16" s="98"/>
+      <c r="S16" s="98"/>
+      <c r="T16" s="98"/>
+      <c r="U16" s="98"/>
+      <c r="V16" s="98"/>
+      <c r="W16" s="98"/>
+      <c r="X16" s="98"/>
+      <c r="Y16" s="98"/>
+      <c r="Z16" s="98"/>
+      <c r="AA16" s="98"/>
     </row>
     <row r="17" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="86">
+      <c r="A17" s="79">
         <v>14</v>
       </c>
-      <c r="B17" s="99">
+      <c r="B17" s="92">
         <v>1</v>
       </c>
-      <c r="C17" s="99">
+      <c r="C17" s="92">
         <v>1</v>
       </c>
-      <c r="D17" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="E17" s="99" t="s">
+      <c r="D17" s="81" t="s">
         <v>139</v>
       </c>
-      <c r="F17" s="106" t="s">
-        <v>140</v>
-      </c>
-      <c r="G17" s="107" t="s">
-        <v>135</v>
-      </c>
-      <c r="H17" s="107" t="s">
-        <v>136</v>
-      </c>
-      <c r="I17" s="103">
+      <c r="E17" s="92" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" s="99" t="s">
+        <v>121</v>
+      </c>
+      <c r="G17" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="100" t="s">
+        <v>117</v>
+      </c>
+      <c r="I17" s="96">
         <v>4</v>
       </c>
-      <c r="J17" s="99">
+      <c r="J17" s="92">
         <v>99</v>
       </c>
-      <c r="K17" s="99"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="99">
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92">
         <v>4</v>
       </c>
-      <c r="N17" s="104"/>
-      <c r="O17" s="99"/>
-      <c r="P17" s="99"/>
-      <c r="Q17" s="107"/>
-      <c r="R17" s="105"/>
-      <c r="S17" s="105"/>
-      <c r="T17" s="105"/>
-      <c r="U17" s="105"/>
-      <c r="V17" s="105"/>
-      <c r="W17" s="105"/>
-      <c r="X17" s="105"/>
-      <c r="Y17" s="105"/>
-      <c r="Z17" s="105"/>
-      <c r="AA17" s="105"/>
+      <c r="N17" s="97"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="100"/>
+      <c r="R17" s="98"/>
+      <c r="S17" s="98"/>
+      <c r="T17" s="98"/>
+      <c r="U17" s="98"/>
+      <c r="V17" s="98"/>
+      <c r="W17" s="98"/>
+      <c r="X17" s="98"/>
+      <c r="Y17" s="98"/>
+      <c r="Z17" s="98"/>
+      <c r="AA17" s="98"/>
     </row>
     <row r="18" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="86">
+      <c r="A18" s="79">
         <v>15</v>
       </c>
-      <c r="B18" s="99">
+      <c r="B18" s="92">
         <v>1</v>
       </c>
-      <c r="C18" s="99">
+      <c r="C18" s="92">
         <v>1</v>
       </c>
-      <c r="D18" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="E18" s="99" t="s">
-        <v>141</v>
-      </c>
-      <c r="F18" s="106" t="s">
-        <v>142</v>
-      </c>
-      <c r="G18" s="107" t="s">
-        <v>135</v>
-      </c>
-      <c r="H18" s="107" t="s">
-        <v>143</v>
-      </c>
-      <c r="I18" s="103">
+      <c r="D18" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" s="92" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="H18" s="100" t="s">
+        <v>124</v>
+      </c>
+      <c r="I18" s="96">
         <v>4</v>
       </c>
-      <c r="J18" s="99">
+      <c r="J18" s="92">
         <v>94</v>
       </c>
-      <c r="K18" s="99"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="99">
+      <c r="K18" s="92"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="92">
         <v>4</v>
       </c>
-      <c r="N18" s="104">
-        <v>0</v>
-      </c>
-      <c r="O18" s="99"/>
-      <c r="P18" s="99"/>
-      <c r="Q18" s="107"/>
-      <c r="R18" s="105"/>
-      <c r="S18" s="105"/>
-      <c r="T18" s="105"/>
-      <c r="U18" s="105"/>
-      <c r="V18" s="105"/>
-      <c r="W18" s="105"/>
-      <c r="X18" s="105"/>
-      <c r="Y18" s="105"/>
-      <c r="Z18" s="105"/>
-      <c r="AA18" s="105"/>
+      <c r="N18" s="97">
+        <v>0</v>
+      </c>
+      <c r="O18" s="92"/>
+      <c r="P18" s="92"/>
+      <c r="Q18" s="100"/>
+      <c r="R18" s="98"/>
+      <c r="S18" s="98"/>
+      <c r="T18" s="98"/>
+      <c r="U18" s="98"/>
+      <c r="V18" s="98"/>
+      <c r="W18" s="98"/>
+      <c r="X18" s="98"/>
+      <c r="Y18" s="98"/>
+      <c r="Z18" s="98"/>
+      <c r="AA18" s="98"/>
     </row>
     <row r="19" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="86">
+      <c r="A19" s="79">
         <v>16</v>
       </c>
-      <c r="B19" s="99">
+      <c r="B19" s="92">
         <v>1</v>
       </c>
-      <c r="C19" s="99">
+      <c r="C19" s="92">
         <v>1</v>
       </c>
-      <c r="D19" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="E19" s="99" t="s">
-        <v>144</v>
-      </c>
-      <c r="F19" s="106" t="s">
-        <v>145</v>
-      </c>
-      <c r="G19" s="107" t="s">
-        <v>135</v>
-      </c>
-      <c r="H19" s="102" t="s">
-        <v>156</v>
-      </c>
-      <c r="I19" s="103">
+      <c r="D19" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="99" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" s="95" t="s">
+        <v>137</v>
+      </c>
+      <c r="I19" s="96">
         <v>4</v>
       </c>
-      <c r="J19" s="99">
+      <c r="J19" s="92">
         <v>70</v>
       </c>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="99">
+      <c r="K19" s="92"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92">
         <v>4</v>
       </c>
-      <c r="N19" s="104">
-        <v>0</v>
-      </c>
-      <c r="O19" s="99"/>
-      <c r="P19" s="99"/>
-      <c r="Q19" s="107"/>
-      <c r="R19" s="105"/>
-      <c r="S19" s="105"/>
-      <c r="T19" s="105"/>
-      <c r="U19" s="105"/>
-      <c r="V19" s="105"/>
-      <c r="W19" s="105"/>
-      <c r="X19" s="105"/>
-      <c r="Y19" s="105"/>
-      <c r="Z19" s="105"/>
-      <c r="AA19" s="105"/>
+      <c r="N19" s="97">
+        <v>0</v>
+      </c>
+      <c r="O19" s="92"/>
+      <c r="P19" s="92"/>
+      <c r="Q19" s="100"/>
+      <c r="R19" s="98"/>
+      <c r="S19" s="98"/>
+      <c r="T19" s="98"/>
+      <c r="U19" s="98"/>
+      <c r="V19" s="98"/>
+      <c r="W19" s="98"/>
+      <c r="X19" s="98"/>
+      <c r="Y19" s="98"/>
+      <c r="Z19" s="98"/>
+      <c r="AA19" s="98"/>
     </row>
     <row r="20" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="86">
+      <c r="A20" s="79">
         <v>17</v>
       </c>
-      <c r="B20" s="99">
+      <c r="B20" s="92">
         <v>1</v>
       </c>
-      <c r="C20" s="99">
+      <c r="C20" s="92">
         <v>1</v>
       </c>
-      <c r="D20" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="E20" s="99" t="s">
-        <v>146</v>
-      </c>
-      <c r="F20" s="106" t="s">
-        <v>147</v>
-      </c>
-      <c r="G20" s="102" t="s">
-        <v>135</v>
-      </c>
-      <c r="H20" s="102" t="s">
-        <v>156</v>
-      </c>
-      <c r="I20" s="103">
+      <c r="D20" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" s="92" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="99" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" s="95" t="s">
+        <v>116</v>
+      </c>
+      <c r="H20" s="95" t="s">
+        <v>137</v>
+      </c>
+      <c r="I20" s="96">
         <v>24</v>
       </c>
-      <c r="J20" s="100">
+      <c r="J20" s="93">
         <v>80</v>
       </c>
-      <c r="K20" s="100"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="100">
+      <c r="K20" s="93"/>
+      <c r="L20" s="93"/>
+      <c r="M20" s="93">
         <v>24</v>
       </c>
-      <c r="N20" s="104">
-        <v>0</v>
-      </c>
-      <c r="O20" s="100"/>
-      <c r="P20" s="100"/>
-      <c r="Q20" s="102"/>
-      <c r="R20" s="105"/>
-      <c r="S20" s="105"/>
-      <c r="T20" s="105"/>
-      <c r="U20" s="105"/>
-      <c r="V20" s="105"/>
-      <c r="W20" s="105"/>
-      <c r="X20" s="105"/>
-      <c r="Y20" s="105"/>
-      <c r="Z20" s="105"/>
-      <c r="AA20" s="105"/>
+      <c r="N20" s="97">
+        <v>0</v>
+      </c>
+      <c r="O20" s="93"/>
+      <c r="P20" s="93"/>
+      <c r="Q20" s="95"/>
+      <c r="R20" s="98"/>
+      <c r="S20" s="98"/>
+      <c r="T20" s="98"/>
+      <c r="U20" s="98"/>
+      <c r="V20" s="98"/>
+      <c r="W20" s="98"/>
+      <c r="X20" s="98"/>
+      <c r="Y20" s="98"/>
+      <c r="Z20" s="98"/>
+      <c r="AA20" s="98"/>
     </row>
     <row r="21" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="86">
+      <c r="A21" s="79">
         <v>18</v>
       </c>
-      <c r="B21" s="99">
+      <c r="B21" s="92">
         <v>1</v>
       </c>
-      <c r="C21" s="99">
+      <c r="C21" s="92">
         <v>1</v>
       </c>
-      <c r="D21" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="E21" s="99" t="s">
-        <v>148</v>
-      </c>
-      <c r="F21" s="106" t="s">
-        <v>149</v>
-      </c>
-      <c r="G21" s="102" t="s">
-        <v>135</v>
-      </c>
-      <c r="H21" s="102" t="s">
-        <v>136</v>
-      </c>
-      <c r="I21" s="103">
+      <c r="D21" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" s="92" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="99" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" s="95" t="s">
+        <v>116</v>
+      </c>
+      <c r="H21" s="95" t="s">
+        <v>117</v>
+      </c>
+      <c r="I21" s="96">
         <v>3</v>
       </c>
-      <c r="J21" s="100">
+      <c r="J21" s="93">
         <v>98</v>
       </c>
-      <c r="K21" s="100"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="100">
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93">
         <v>3</v>
       </c>
-      <c r="N21" s="104">
-        <v>0</v>
-      </c>
-      <c r="O21" s="100"/>
-      <c r="P21" s="100"/>
-      <c r="Q21" s="102"/>
-      <c r="R21" s="105"/>
-      <c r="S21" s="105"/>
-      <c r="T21" s="105"/>
-      <c r="U21" s="105"/>
-      <c r="V21" s="105"/>
-      <c r="W21" s="105"/>
-      <c r="X21" s="105"/>
-      <c r="Y21" s="105"/>
-      <c r="Z21" s="105"/>
-      <c r="AA21" s="105"/>
+      <c r="N21" s="97">
+        <v>0</v>
+      </c>
+      <c r="O21" s="93"/>
+      <c r="P21" s="93"/>
+      <c r="Q21" s="95"/>
+      <c r="R21" s="98"/>
+      <c r="S21" s="98"/>
+      <c r="T21" s="98"/>
+      <c r="U21" s="98"/>
+      <c r="V21" s="98"/>
+      <c r="W21" s="98"/>
+      <c r="X21" s="98"/>
+      <c r="Y21" s="98"/>
+      <c r="Z21" s="98"/>
+      <c r="AA21" s="98"/>
     </row>
     <row r="22" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="86">
+      <c r="A22" s="79">
         <v>19</v>
       </c>
-      <c r="B22" s="99">
+      <c r="B22" s="92">
         <v>1</v>
       </c>
-      <c r="C22" s="99">
+      <c r="C22" s="92">
         <v>1</v>
       </c>
-      <c r="D22" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="E22" s="99" t="s">
-        <v>150</v>
-      </c>
-      <c r="F22" s="106" t="s">
-        <v>151</v>
-      </c>
-      <c r="G22" s="102" t="s">
-        <v>135</v>
-      </c>
-      <c r="H22" s="102" t="s">
-        <v>143</v>
-      </c>
-      <c r="I22" s="103">
+      <c r="D22" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="E22" s="92" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" s="99" t="s">
+        <v>132</v>
+      </c>
+      <c r="G22" s="95" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" s="95" t="s">
+        <v>124</v>
+      </c>
+      <c r="I22" s="96">
         <v>24</v>
       </c>
-      <c r="J22" s="100">
+      <c r="J22" s="93">
         <v>90</v>
       </c>
-      <c r="K22" s="100"/>
-      <c r="L22" s="100"/>
-      <c r="M22" s="100">
+      <c r="K22" s="93"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="93">
         <v>24</v>
       </c>
-      <c r="N22" s="104">
-        <v>0</v>
-      </c>
-      <c r="O22" s="100"/>
-      <c r="P22" s="100"/>
-      <c r="Q22" s="102"/>
-      <c r="R22" s="105"/>
-      <c r="S22" s="105"/>
-      <c r="T22" s="105"/>
-      <c r="U22" s="105"/>
-      <c r="V22" s="105"/>
-      <c r="W22" s="105"/>
-      <c r="X22" s="105"/>
-      <c r="Y22" s="105"/>
-      <c r="Z22" s="105"/>
-      <c r="AA22" s="105"/>
+      <c r="N22" s="97">
+        <v>0</v>
+      </c>
+      <c r="O22" s="93"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="95"/>
+      <c r="R22" s="98"/>
+      <c r="S22" s="98"/>
+      <c r="T22" s="98"/>
+      <c r="U22" s="98"/>
+      <c r="V22" s="98"/>
+      <c r="W22" s="98"/>
+      <c r="X22" s="98"/>
+      <c r="Y22" s="98"/>
+      <c r="Z22" s="98"/>
+      <c r="AA22" s="98"/>
     </row>
     <row r="23" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="86">
+      <c r="A23" s="79">
         <v>20</v>
       </c>
-      <c r="B23" s="99">
+      <c r="B23" s="92">
         <v>1</v>
       </c>
-      <c r="C23" s="99">
+      <c r="C23" s="92">
         <v>1</v>
       </c>
-      <c r="D23" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="E23" s="99" t="s">
-        <v>152</v>
-      </c>
-      <c r="F23" s="106" t="s">
-        <v>153</v>
-      </c>
-      <c r="G23" s="107" t="s">
-        <v>135</v>
-      </c>
-      <c r="H23" s="107" t="s">
-        <v>143</v>
-      </c>
-      <c r="I23" s="103">
+      <c r="D23" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="92" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="99" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="H23" s="100" t="s">
+        <v>124</v>
+      </c>
+      <c r="I23" s="96">
         <v>1</v>
       </c>
-      <c r="J23" s="100">
+      <c r="J23" s="93">
         <v>93</v>
       </c>
-      <c r="K23" s="100"/>
-      <c r="L23" s="100"/>
-      <c r="M23" s="100">
+      <c r="K23" s="93"/>
+      <c r="L23" s="93"/>
+      <c r="M23" s="93">
         <v>1</v>
       </c>
-      <c r="N23" s="104"/>
-      <c r="O23" s="100"/>
-      <c r="P23" s="100"/>
-      <c r="Q23" s="102"/>
-      <c r="R23" s="105"/>
-      <c r="S23" s="105"/>
-      <c r="T23" s="105"/>
-      <c r="U23" s="105"/>
-      <c r="V23" s="105"/>
-      <c r="W23" s="105"/>
-      <c r="X23" s="105"/>
-      <c r="Y23" s="105"/>
-      <c r="Z23" s="105"/>
-      <c r="AA23" s="105"/>
+      <c r="N23" s="97"/>
+      <c r="O23" s="93"/>
+      <c r="P23" s="93"/>
+      <c r="Q23" s="95"/>
+      <c r="R23" s="98"/>
+      <c r="S23" s="98"/>
+      <c r="T23" s="98"/>
+      <c r="U23" s="98"/>
+      <c r="V23" s="98"/>
+      <c r="W23" s="98"/>
+      <c r="X23" s="98"/>
+      <c r="Y23" s="98"/>
+      <c r="Z23" s="98"/>
+      <c r="AA23" s="98"/>
     </row>
     <row r="24" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="86">
+      <c r="A24" s="79">
         <v>21</v>
       </c>
-      <c r="B24" s="99">
+      <c r="B24" s="92">
         <v>1</v>
       </c>
-      <c r="C24" s="99">
+      <c r="C24" s="92">
         <v>1</v>
       </c>
-      <c r="D24" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="E24" s="99" t="s">
-        <v>154</v>
-      </c>
-      <c r="F24" s="106" t="s">
-        <v>155</v>
-      </c>
-      <c r="G24" s="102" t="s">
+      <c r="D24" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="92" t="s">
         <v>135</v>
       </c>
-      <c r="H24" s="102" t="s">
-        <v>156</v>
-      </c>
-      <c r="I24" s="103">
+      <c r="F24" s="99" t="s">
+        <v>136</v>
+      </c>
+      <c r="G24" s="95" t="s">
+        <v>116</v>
+      </c>
+      <c r="H24" s="95" t="s">
+        <v>124</v>
+      </c>
+      <c r="I24" s="96">
         <v>1</v>
       </c>
-      <c r="J24" s="100">
+      <c r="J24" s="93">
         <v>95</v>
       </c>
-      <c r="K24" s="100"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="100">
+      <c r="K24" s="93"/>
+      <c r="L24" s="93"/>
+      <c r="M24" s="93">
         <v>1</v>
       </c>
-      <c r="N24" s="104">
-        <v>0</v>
-      </c>
-      <c r="O24" s="100"/>
-      <c r="P24" s="100"/>
-      <c r="Q24" s="102"/>
-      <c r="R24" s="105"/>
-      <c r="S24" s="105"/>
-      <c r="T24" s="105"/>
-      <c r="U24" s="105"/>
-      <c r="V24" s="105"/>
-      <c r="W24" s="105"/>
-      <c r="X24" s="105"/>
-      <c r="Y24" s="105"/>
-      <c r="Z24" s="105"/>
-      <c r="AA24" s="105"/>
+      <c r="N24" s="97">
+        <v>0</v>
+      </c>
+      <c r="O24" s="93"/>
+      <c r="P24" s="93"/>
+      <c r="Q24" s="95"/>
+      <c r="R24" s="98"/>
+      <c r="S24" s="98"/>
+      <c r="T24" s="98"/>
+      <c r="U24" s="98"/>
+      <c r="V24" s="98"/>
+      <c r="W24" s="98"/>
+      <c r="X24" s="98"/>
+      <c r="Y24" s="98"/>
+      <c r="Z24" s="98"/>
+      <c r="AA24" s="98"/>
     </row>
-    <row r="25" spans="1:27" s="115" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="108"/>
-      <c r="B25" s="109"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="111"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="110"/>
-      <c r="I25" s="112"/>
-      <c r="J25" s="109"/>
-      <c r="K25" s="109"/>
-      <c r="L25" s="109"/>
-      <c r="M25" s="109"/>
-      <c r="N25" s="113"/>
-      <c r="O25" s="109"/>
-      <c r="P25" s="109"/>
-      <c r="Q25" s="110"/>
-      <c r="R25" s="114"/>
-      <c r="S25" s="114"/>
-      <c r="T25" s="114"/>
-      <c r="U25" s="114"/>
-      <c r="V25" s="114"/>
-      <c r="W25" s="114"/>
-      <c r="X25" s="114"/>
-      <c r="Y25" s="114"/>
-      <c r="Z25" s="114"/>
-      <c r="AA25" s="114"/>
+    <row r="25" spans="1:27" s="108" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="101"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="106"/>
+      <c r="O25" s="102"/>
+      <c r="P25" s="102"/>
+      <c r="Q25" s="103"/>
+      <c r="R25" s="107"/>
+      <c r="S25" s="107"/>
+      <c r="T25" s="107"/>
+      <c r="U25" s="107"/>
+      <c r="V25" s="107"/>
+      <c r="W25" s="107"/>
+      <c r="X25" s="107"/>
+      <c r="Y25" s="107"/>
+      <c r="Z25" s="107"/>
+      <c r="AA25" s="107"/>
     </row>
     <row r="26" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="96">
+      <c r="A26" s="89">
         <v>1</v>
       </c>
-      <c r="B26" s="96">
+      <c r="B26" s="89">
         <v>1</v>
       </c>
-      <c r="C26" s="96">
+      <c r="C26" s="89">
         <v>2</v>
       </c>
-      <c r="D26" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="E26" s="96" t="s">
-        <v>127</v>
-      </c>
-      <c r="F26" s="98" t="s">
-        <v>128</v>
-      </c>
-      <c r="G26" s="90" t="s">
-        <v>92</v>
-      </c>
-      <c r="H26" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="I26" s="91">
+      <c r="D26" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="E26" s="89" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="91" t="s">
+        <v>167</v>
+      </c>
+      <c r="G26" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="I26" s="84">
         <v>2</v>
       </c>
-      <c r="J26" s="92">
+      <c r="J26" s="85">
         <v>97</v>
       </c>
-      <c r="M26" s="92">
+      <c r="M26" s="85">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="96">
+      <c r="A27" s="89">
         <v>2</v>
       </c>
-      <c r="B27" s="87">
+      <c r="B27" s="80">
         <v>1</v>
       </c>
-      <c r="C27" s="96">
+      <c r="C27" s="89">
         <v>2</v>
       </c>
-      <c r="D27" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="E27" s="92" t="s">
-        <v>108</v>
-      </c>
-      <c r="F27" s="116" t="s">
-        <v>109</v>
-      </c>
-      <c r="G27" s="90" t="s">
-        <v>92</v>
-      </c>
-      <c r="H27" s="90" t="s">
-        <v>110</v>
-      </c>
-      <c r="I27" s="91">
+      <c r="D27" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="E27" s="85" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="109" t="s">
+        <v>165</v>
+      </c>
+      <c r="G27" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="I27" s="84">
         <v>4</v>
       </c>
-      <c r="J27" s="92">
+      <c r="J27" s="85">
         <v>96</v>
       </c>
-      <c r="K27" s="92"/>
-      <c r="L27" s="92"/>
-      <c r="M27" s="92">
+      <c r="K27" s="85"/>
+      <c r="L27" s="85"/>
+      <c r="M27" s="85">
         <v>4</v>
       </c>
-      <c r="N27" s="93">
-        <v>0</v>
-      </c>
-      <c r="O27" s="92"/>
-      <c r="P27" s="92"/>
-      <c r="Q27" s="90"/>
+      <c r="N27" s="86">
+        <v>0</v>
+      </c>
+      <c r="O27" s="85"/>
+      <c r="P27" s="85"/>
+      <c r="Q27" s="83"/>
     </row>
     <row r="28" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="96">
+      <c r="A28" s="89">
         <v>3</v>
       </c>
-      <c r="B28" s="87">
+      <c r="B28" s="80">
         <v>1</v>
       </c>
-      <c r="C28" s="96">
+      <c r="C28" s="89">
         <v>2</v>
       </c>
-      <c r="D28" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="E28" s="96" t="s">
-        <v>111</v>
-      </c>
-      <c r="F28" s="89" t="s">
-        <v>112</v>
-      </c>
-      <c r="G28" s="88" t="s">
-        <v>92</v>
-      </c>
-      <c r="H28" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="I28" s="91">
+      <c r="D28" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="G28" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="I28" s="84">
         <v>4</v>
       </c>
-      <c r="J28" s="87">
+      <c r="J28" s="80">
         <v>95</v>
       </c>
-      <c r="K28" s="87"/>
-      <c r="L28" s="87"/>
-      <c r="M28" s="87">
+      <c r="K28" s="80"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="80">
         <v>4</v>
       </c>
-      <c r="N28" s="93"/>
-      <c r="O28" s="87"/>
-      <c r="P28" s="87"/>
-      <c r="Q28" s="88"/>
+      <c r="N28" s="86"/>
+      <c r="O28" s="80"/>
+      <c r="P28" s="80"/>
+      <c r="Q28" s="81"/>
     </row>
     <row r="29" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="96">
+      <c r="A29" s="89">
         <v>4</v>
       </c>
-      <c r="B29" s="87">
+      <c r="B29" s="80">
         <v>1</v>
       </c>
-      <c r="C29" s="96">
+      <c r="C29" s="89">
         <v>2</v>
       </c>
-      <c r="D29" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="E29" s="96" t="s">
-        <v>113</v>
-      </c>
-      <c r="F29" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="G29" s="88" t="s">
-        <v>92</v>
-      </c>
-      <c r="H29" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="I29" s="91">
+      <c r="D29" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="E29" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="90" t="s">
+        <v>161</v>
+      </c>
+      <c r="G29" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="H29" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="I29" s="84">
         <v>4</v>
       </c>
-      <c r="J29" s="87">
+      <c r="J29" s="80">
         <v>93</v>
       </c>
-      <c r="K29" s="87"/>
-      <c r="L29" s="87"/>
-      <c r="M29" s="87">
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="80">
         <v>4</v>
       </c>
-      <c r="N29" s="93">
-        <v>0</v>
-      </c>
-      <c r="O29" s="87"/>
-      <c r="P29" s="87"/>
-      <c r="Q29" s="88"/>
+      <c r="N29" s="86">
+        <v>0</v>
+      </c>
+      <c r="O29" s="80"/>
+      <c r="P29" s="80"/>
+      <c r="Q29" s="81"/>
     </row>
     <row r="30" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="96">
+      <c r="A30" s="89">
         <v>5</v>
       </c>
-      <c r="B30" s="87">
+      <c r="B30" s="80">
         <v>1</v>
       </c>
-      <c r="C30" s="96">
+      <c r="C30" s="89">
         <v>2</v>
       </c>
-      <c r="D30" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="E30" s="96" t="s">
-        <v>159</v>
-      </c>
-      <c r="F30" s="98" t="s">
-        <v>166</v>
-      </c>
-      <c r="G30" s="88" t="s">
-        <v>92</v>
-      </c>
-      <c r="H30" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="I30" s="91">
+      <c r="D30" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30" s="89" t="s">
+        <v>140</v>
+      </c>
+      <c r="F30" s="91" t="s">
+        <v>147</v>
+      </c>
+      <c r="G30" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="H30" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="I30" s="84">
         <v>4</v>
       </c>
-      <c r="J30" s="87">
+      <c r="J30" s="80">
         <v>93</v>
       </c>
-      <c r="K30" s="87"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="87">
+      <c r="K30" s="80"/>
+      <c r="L30" s="80"/>
+      <c r="M30" s="80">
         <v>4</v>
       </c>
-      <c r="N30" s="93">
-        <v>0</v>
-      </c>
-      <c r="O30" s="87"/>
-      <c r="P30" s="87"/>
-      <c r="Q30" s="88"/>
+      <c r="N30" s="86">
+        <v>0</v>
+      </c>
+      <c r="O30" s="80"/>
+      <c r="P30" s="80"/>
+      <c r="Q30" s="81"/>
     </row>
     <row r="31" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="96">
+      <c r="A31" s="89">
         <v>6</v>
       </c>
-      <c r="B31" s="87">
+      <c r="B31" s="80">
         <v>1</v>
       </c>
-      <c r="C31" s="96">
+      <c r="C31" s="89">
         <v>2</v>
       </c>
-      <c r="D31" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="E31" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="F31" s="98" t="s">
-        <v>165</v>
-      </c>
-      <c r="G31" s="88" t="s">
-        <v>92</v>
-      </c>
-      <c r="H31" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="I31" s="91">
+      <c r="D31" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31" s="89" t="s">
+        <v>141</v>
+      </c>
+      <c r="F31" s="91" t="s">
+        <v>146</v>
+      </c>
+      <c r="G31" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="H31" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="I31" s="84">
         <v>4</v>
       </c>
-      <c r="J31" s="87">
+      <c r="J31" s="80">
         <v>93</v>
       </c>
-      <c r="K31" s="87"/>
-      <c r="L31" s="87"/>
-      <c r="M31" s="87">
+      <c r="K31" s="80"/>
+      <c r="L31" s="80"/>
+      <c r="M31" s="80">
         <v>4</v>
       </c>
-      <c r="N31" s="93">
-        <v>0</v>
-      </c>
-      <c r="O31" s="87"/>
-      <c r="P31" s="87"/>
-      <c r="Q31" s="88"/>
+      <c r="N31" s="86">
+        <v>0</v>
+      </c>
+      <c r="O31" s="80"/>
+      <c r="P31" s="80"/>
+      <c r="Q31" s="81"/>
     </row>
     <row r="32" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="96">
+      <c r="A32" s="89">
         <v>7</v>
       </c>
-      <c r="B32" s="87">
+      <c r="B32" s="80">
         <v>1</v>
       </c>
-      <c r="C32" s="96">
+      <c r="C32" s="89">
         <v>2</v>
       </c>
-      <c r="D32" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="E32" s="96" t="s">
-        <v>161</v>
-      </c>
-      <c r="F32" s="98" t="s">
-        <v>164</v>
-      </c>
-      <c r="G32" s="88" t="s">
-        <v>92</v>
-      </c>
-      <c r="H32" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="I32" s="91">
+      <c r="D32" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="E32" s="89" t="s">
+        <v>142</v>
+      </c>
+      <c r="F32" s="91" t="s">
+        <v>145</v>
+      </c>
+      <c r="G32" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="H32" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="I32" s="84">
         <v>4</v>
       </c>
-      <c r="J32" s="87">
+      <c r="J32" s="80">
         <v>93</v>
       </c>
-      <c r="K32" s="87"/>
-      <c r="L32" s="87"/>
-      <c r="M32" s="87">
+      <c r="K32" s="80"/>
+      <c r="L32" s="80"/>
+      <c r="M32" s="80">
         <v>4</v>
       </c>
-      <c r="N32" s="93">
-        <v>0</v>
-      </c>
-      <c r="O32" s="87"/>
-      <c r="P32" s="87"/>
-      <c r="Q32" s="88"/>
+      <c r="N32" s="86">
+        <v>0</v>
+      </c>
+      <c r="O32" s="80"/>
+      <c r="P32" s="80"/>
+      <c r="Q32" s="81"/>
     </row>
     <row r="33" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="96">
+      <c r="A33" s="89">
         <v>8</v>
       </c>
-      <c r="B33" s="87">
+      <c r="B33" s="80">
         <v>1</v>
       </c>
-      <c r="C33" s="96">
+      <c r="C33" s="89">
         <v>2</v>
       </c>
-      <c r="D33" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="E33" s="96" t="s">
-        <v>162</v>
-      </c>
-      <c r="F33" s="98" t="s">
-        <v>163</v>
-      </c>
-      <c r="G33" s="88" t="s">
-        <v>92</v>
-      </c>
-      <c r="H33" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="I33" s="91">
+      <c r="D33" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" s="89" t="s">
+        <v>143</v>
+      </c>
+      <c r="F33" s="91" t="s">
+        <v>144</v>
+      </c>
+      <c r="G33" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="H33" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="I33" s="84">
         <v>4</v>
       </c>
-      <c r="J33" s="87">
+      <c r="J33" s="80">
         <v>93</v>
       </c>
-      <c r="K33" s="87"/>
-      <c r="L33" s="87"/>
-      <c r="M33" s="87">
+      <c r="K33" s="80"/>
+      <c r="L33" s="80"/>
+      <c r="M33" s="80">
         <v>4</v>
       </c>
-      <c r="N33" s="93">
-        <v>0</v>
-      </c>
-      <c r="O33" s="87"/>
-      <c r="P33" s="87"/>
-      <c r="Q33" s="88"/>
+      <c r="N33" s="86">
+        <v>0</v>
+      </c>
+      <c r="O33" s="80"/>
+      <c r="P33" s="80"/>
+      <c r="Q33" s="81"/>
     </row>
     <row r="34" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="96">
+      <c r="A34" s="89">
         <v>9</v>
       </c>
-      <c r="B34" s="99">
+      <c r="B34" s="92">
         <v>1</v>
       </c>
-      <c r="C34" s="96">
+      <c r="C34" s="89">
         <v>2</v>
       </c>
-      <c r="D34" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="E34" s="117" t="s">
-        <v>133</v>
-      </c>
-      <c r="F34" s="106" t="s">
-        <v>134</v>
-      </c>
-      <c r="G34" s="107" t="s">
-        <v>135</v>
-      </c>
-      <c r="H34" s="102" t="s">
-        <v>136</v>
-      </c>
-      <c r="I34" s="103">
+      <c r="D34" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="E34" s="110" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" s="99" t="s">
+        <v>115</v>
+      </c>
+      <c r="G34" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="H34" s="95" t="s">
+        <v>117</v>
+      </c>
+      <c r="I34" s="96">
         <v>24</v>
       </c>
-      <c r="J34" s="100">
+      <c r="J34" s="93">
         <v>98</v>
       </c>
-      <c r="K34" s="87"/>
-      <c r="L34" s="100"/>
-      <c r="M34" s="100">
+      <c r="K34" s="80"/>
+      <c r="L34" s="93"/>
+      <c r="M34" s="93">
         <v>24</v>
       </c>
-      <c r="N34" s="104"/>
-      <c r="O34" s="100"/>
-      <c r="P34" s="100"/>
-      <c r="Q34" s="102"/>
-      <c r="R34" s="105"/>
-      <c r="S34" s="105"/>
-      <c r="T34" s="105"/>
-      <c r="U34" s="105"/>
-      <c r="V34" s="105"/>
-      <c r="W34" s="105"/>
-      <c r="X34" s="105"/>
-      <c r="Y34" s="105"/>
-      <c r="Z34" s="105"/>
-      <c r="AA34" s="105"/>
+      <c r="N34" s="97"/>
+      <c r="O34" s="93"/>
+      <c r="P34" s="93"/>
+      <c r="Q34" s="95"/>
+      <c r="R34" s="98"/>
+      <c r="S34" s="98"/>
+      <c r="T34" s="98"/>
+      <c r="U34" s="98"/>
+      <c r="V34" s="98"/>
+      <c r="W34" s="98"/>
+      <c r="X34" s="98"/>
+      <c r="Y34" s="98"/>
+      <c r="Z34" s="98"/>
+      <c r="AA34" s="98"/>
     </row>
     <row r="35" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="96">
+      <c r="A35" s="89">
         <v>10</v>
       </c>
-      <c r="B35" s="87">
+      <c r="B35" s="80">
         <v>1</v>
       </c>
-      <c r="C35" s="96">
+      <c r="C35" s="89">
         <v>2</v>
       </c>
-      <c r="D35" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="E35" s="96" t="s">
-        <v>118</v>
-      </c>
-      <c r="F35" s="97" t="s">
-        <v>119</v>
-      </c>
-      <c r="G35" s="90" t="s">
-        <v>92</v>
-      </c>
-      <c r="H35" s="90" t="s">
-        <v>110</v>
-      </c>
-      <c r="I35" s="91">
+      <c r="D35" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="E35" s="89" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" s="90" t="s">
+        <v>149</v>
+      </c>
+      <c r="G35" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="H35" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="I35" s="84">
         <v>1</v>
       </c>
-      <c r="J35" s="92">
+      <c r="J35" s="85">
         <v>98</v>
       </c>
-      <c r="K35" s="92"/>
-      <c r="L35" s="92"/>
-      <c r="M35" s="92">
+      <c r="K35" s="85"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="85">
         <v>1</v>
       </c>
-      <c r="N35" s="93">
-        <v>0</v>
-      </c>
-      <c r="O35" s="92"/>
-      <c r="P35" s="92"/>
-      <c r="Q35" s="90"/>
+      <c r="N35" s="86">
+        <v>0</v>
+      </c>
+      <c r="O35" s="85"/>
+      <c r="P35" s="85"/>
+      <c r="Q35" s="83"/>
     </row>
     <row r="36" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="96">
+      <c r="A36" s="89">
         <v>11</v>
       </c>
-      <c r="B36" s="87">
+      <c r="B36" s="80">
         <v>3</v>
       </c>
-      <c r="C36" s="96">
+      <c r="C36" s="89">
         <v>2</v>
       </c>
-      <c r="D36" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="E36" s="96" t="s">
-        <v>120</v>
-      </c>
-      <c r="F36" s="97" t="s">
-        <v>121</v>
-      </c>
-      <c r="G36" s="90" t="s">
-        <v>92</v>
-      </c>
-      <c r="H36" s="90" t="s">
-        <v>122</v>
-      </c>
-      <c r="I36" s="91">
+      <c r="D36" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="E36" s="89" t="s">
+        <v>107</v>
+      </c>
+      <c r="F36" s="90" t="s">
+        <v>150</v>
+      </c>
+      <c r="G36" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="H36" s="83" t="s">
+        <v>108</v>
+      </c>
+      <c r="I36" s="84">
         <v>4</v>
       </c>
-      <c r="J36" s="92">
+      <c r="J36" s="85">
         <v>85</v>
       </c>
-      <c r="K36" s="92"/>
-      <c r="L36" s="92"/>
-      <c r="M36" s="92">
+      <c r="K36" s="85"/>
+      <c r="L36" s="85"/>
+      <c r="M36" s="85">
         <v>4</v>
       </c>
-      <c r="N36" s="93">
-        <v>0</v>
-      </c>
-      <c r="O36" s="92"/>
-      <c r="P36" s="92"/>
-      <c r="Q36" s="90"/>
+      <c r="N36" s="86">
+        <v>0</v>
+      </c>
+      <c r="O36" s="85"/>
+      <c r="P36" s="85"/>
+      <c r="Q36" s="83"/>
     </row>
     <row r="37" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="96">
+      <c r="A37" s="89">
         <v>12</v>
       </c>
-      <c r="B37" s="87">
+      <c r="B37" s="80">
         <v>3</v>
       </c>
-      <c r="C37" s="96">
+      <c r="C37" s="89">
         <v>2</v>
       </c>
-      <c r="D37" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="E37" s="96" t="s">
-        <v>123</v>
-      </c>
-      <c r="F37" s="97" t="s">
-        <v>124</v>
-      </c>
-      <c r="G37" s="88" t="s">
-        <v>92</v>
-      </c>
-      <c r="H37" s="88" t="s">
-        <v>122</v>
-      </c>
-      <c r="I37" s="91">
+      <c r="D37" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="E37" s="89" t="s">
+        <v>109</v>
+      </c>
+      <c r="F37" s="90" t="s">
+        <v>151</v>
+      </c>
+      <c r="G37" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="H37" s="81" t="s">
+        <v>108</v>
+      </c>
+      <c r="I37" s="84">
         <v>12</v>
       </c>
-      <c r="J37" s="92">
+      <c r="J37" s="85">
         <v>80</v>
       </c>
-      <c r="K37" s="92"/>
-      <c r="L37" s="92"/>
-      <c r="M37" s="92">
+      <c r="K37" s="85"/>
+      <c r="L37" s="85"/>
+      <c r="M37" s="85">
         <v>12</v>
       </c>
-      <c r="N37" s="93"/>
-      <c r="O37" s="92"/>
-      <c r="P37" s="92"/>
-      <c r="Q37" s="90"/>
+      <c r="N37" s="86"/>
+      <c r="O37" s="85"/>
+      <c r="P37" s="85"/>
+      <c r="Q37" s="83"/>
     </row>
     <row r="38" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="96">
+      <c r="A38" s="89">
         <v>13</v>
       </c>
-      <c r="B38" s="87">
+      <c r="B38" s="80">
         <v>3</v>
       </c>
-      <c r="C38" s="96">
+      <c r="C38" s="89">
         <v>2</v>
       </c>
-      <c r="D38" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="E38" s="96" t="s">
-        <v>125</v>
-      </c>
-      <c r="F38" s="97" t="s">
-        <v>126</v>
-      </c>
-      <c r="G38" s="90" t="s">
-        <v>92</v>
-      </c>
-      <c r="H38" s="90" t="s">
-        <v>122</v>
-      </c>
-      <c r="I38" s="91">
+      <c r="D38" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="E38" s="89" t="s">
+        <v>110</v>
+      </c>
+      <c r="F38" s="90" t="s">
+        <v>152</v>
+      </c>
+      <c r="G38" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="H38" s="83" t="s">
+        <v>108</v>
+      </c>
+      <c r="I38" s="84">
         <v>4</v>
       </c>
-      <c r="J38" s="92">
+      <c r="J38" s="85">
         <v>70</v>
       </c>
-      <c r="K38" s="92"/>
-      <c r="L38" s="92"/>
-      <c r="M38" s="92">
+      <c r="K38" s="85"/>
+      <c r="L38" s="85"/>
+      <c r="M38" s="85">
         <v>4</v>
       </c>
-      <c r="N38" s="93">
-        <v>0</v>
-      </c>
-      <c r="O38" s="92"/>
-      <c r="P38" s="92"/>
-      <c r="Q38" s="90"/>
+      <c r="N38" s="86">
+        <v>0</v>
+      </c>
+      <c r="O38" s="85"/>
+      <c r="P38" s="85"/>
+      <c r="Q38" s="83"/>
     </row>
-    <row r="39" spans="1:27" s="125" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="123" t="s">
-        <v>157</v>
-      </c>
-      <c r="B39" s="124"/>
-      <c r="C39" s="124">
+    <row r="39" spans="1:27" s="118" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="116" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" s="117"/>
+      <c r="C39" s="117">
         <v>34</v>
       </c>
     </row>
@@ -5207,10 +5203,10 @@
       <c r="C8" s="10"/>
       <c r="D8" s="9"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="63"/>
+      <c r="F8" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="119"/>
       <c r="H8" s="12">
         <f>'[1]SPRINT 1'!$H$25</f>
         <v>0</v>
@@ -5335,14 +5331,14 @@
       </c>
       <c r="C9" s="17">
         <f ca="1">TODAY()</f>
-        <v>43466</v>
+        <v>43467</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="18"/>
-      <c r="F9" s="64" t="s">
+      <c r="F9" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="64"/>
+      <c r="G9" s="120"/>
       <c r="H9" s="19">
         <f>'[1]SPRINT 1'!$H$25</f>
         <v>0</v>
@@ -5471,9 +5467,9 @@
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="23"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="67"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="123"/>
       <c r="I10" s="24" t="e">
         <f t="shared" ref="I10:AJ10" ca="1" si="1">IF(I11&lt;&gt;"",VLOOKUP(WEEKDAY(I11),DAYOFWEEK,2),"")</f>
         <v>#N/A</v>
@@ -5596,10 +5592,10 @@
         <f ca="1">VLOOKUP($C$10,[1]SETUP!$A$2:$H$8,3)</f>
         <v>#N/A</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="69"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="27">
         <f>'[1]SPRINT 1'!$H$25</f>
         <v>0</v>
@@ -7585,10 +7581,10 @@
       <c r="C8" s="10"/>
       <c r="D8" s="9"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="63"/>
+      <c r="F8" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="119"/>
       <c r="H8" s="12">
         <f>'[1]SPRINT 1'!$H$25</f>
         <v>0</v>
@@ -7713,14 +7709,14 @@
       </c>
       <c r="C9" s="17">
         <f ca="1">TODAY()</f>
-        <v>43466</v>
+        <v>43467</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="18"/>
-      <c r="F9" s="64" t="s">
+      <c r="F9" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="64"/>
+      <c r="G9" s="120"/>
       <c r="H9" s="19">
         <f>'[1]SPRINT 1'!$H$25</f>
         <v>0</v>
@@ -7849,9 +7845,9 @@
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="23"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="67"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="123"/>
       <c r="I10" s="24" t="e">
         <f t="shared" ref="I10:AJ10" ca="1" si="1">IF(I11&lt;&gt;"",VLOOKUP(WEEKDAY(I11),DAYOFWEEK,2),"")</f>
         <v>#N/A</v>
@@ -7974,10 +7970,10 @@
         <f ca="1">VLOOKUP($C$10,[1]SETUP!$A$2:$H$8,3)</f>
         <v>#N/A</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="69"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="27">
         <f>'[1]SPRINT 1'!$H$25</f>
         <v>0</v>
@@ -8322,7 +8318,7 @@
         <v>50</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="F15" s="44"/>
       <c r="G15" s="44"/>

--- a/project/Backlog.xlsx
+++ b/project/Backlog.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388B7B43-3D14-423E-9E9A-C5CDB11FC329}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A2824A-9C8F-4F37-8053-1FAAC55668EF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -457,11 +457,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-发布动态</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>作为一个养生用户，我希望能够给其他用户分享一些关于养生的文章、视频等</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -672,6 +667,10 @@
   <si>
     <t>作为一个普通用户，我希望能够直接进入APP，以便我可以初步了解该APP。</t>
     <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布动态</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2528,8 +2527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE2BEF8-1FD2-4A89-8E07-099FCF31F9AD}">
   <dimension ref="A1:AA39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2652,13 +2651,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E4" s="80" t="s">
         <v>90</v>
       </c>
       <c r="F4" s="82" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G4" s="81" t="s">
         <v>91</v>
@@ -2693,13 +2692,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E5" s="80" t="s">
         <v>93</v>
       </c>
       <c r="F5" s="87" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G5" s="81" t="s">
         <v>91</v>
@@ -2732,13 +2731,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E6" s="80" t="s">
         <v>94</v>
       </c>
       <c r="F6" s="88" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G6" s="81" t="s">
         <v>91</v>
@@ -2771,13 +2770,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E7" s="80" t="s">
         <v>95</v>
       </c>
       <c r="F7" s="88" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G7" s="81" t="s">
         <v>91</v>
@@ -2810,13 +2809,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E8" s="80" t="s">
         <v>96</v>
       </c>
       <c r="F8" s="88" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G8" s="81" t="s">
         <v>91</v>
@@ -2849,13 +2848,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E9" s="80" t="s">
         <v>97</v>
       </c>
       <c r="F9" s="88" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G9" s="81" t="s">
         <v>91</v>
@@ -2888,13 +2887,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E10" s="80" t="s">
         <v>98</v>
       </c>
       <c r="F10" s="88" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G10" s="81" t="s">
         <v>91</v>
@@ -2927,13 +2926,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E11" s="80" t="s">
         <v>99</v>
       </c>
       <c r="F11" s="82" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G11" s="81" t="s">
         <v>91</v>
@@ -2966,13 +2965,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E12" s="89" t="s">
         <v>103</v>
       </c>
       <c r="F12" s="90" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G12" s="81" t="s">
         <v>91</v>
@@ -3009,13 +3008,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E13" s="89" t="s">
         <v>104</v>
       </c>
       <c r="F13" s="90" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G13" s="83" t="s">
         <v>105</v>
@@ -3052,13 +3051,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E14" s="89" t="s">
         <v>112</v>
       </c>
       <c r="F14" s="91" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G14" s="83" t="s">
         <v>91</v>
@@ -3087,13 +3086,13 @@
         <v>1</v>
       </c>
       <c r="D15" s="81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E15" s="89" t="s">
         <v>113</v>
       </c>
       <c r="F15" s="91" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G15" s="83" t="s">
         <v>91</v>
@@ -3122,19 +3121,19 @@
         <v>1</v>
       </c>
       <c r="D16" s="81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E16" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="F16" s="94" t="s">
-        <v>119</v>
-      </c>
       <c r="G16" s="95" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" s="95" t="s">
         <v>116</v>
-      </c>
-      <c r="H16" s="95" t="s">
-        <v>117</v>
       </c>
       <c r="I16" s="96">
         <v>4</v>
@@ -3175,19 +3174,19 @@
         <v>1</v>
       </c>
       <c r="D17" s="81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E17" s="92" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="99" t="s">
         <v>120</v>
       </c>
-      <c r="F17" s="99" t="s">
-        <v>121</v>
-      </c>
       <c r="G17" s="100" t="s">
+        <v>115</v>
+      </c>
+      <c r="H17" s="100" t="s">
         <v>116</v>
-      </c>
-      <c r="H17" s="100" t="s">
-        <v>117</v>
       </c>
       <c r="I17" s="96">
         <v>4</v>
@@ -3226,19 +3225,19 @@
         <v>1</v>
       </c>
       <c r="D18" s="81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E18" s="92" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="F18" s="99" t="s">
+      <c r="G18" s="100" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="100" t="s">
         <v>123</v>
-      </c>
-      <c r="G18" s="100" t="s">
-        <v>116</v>
-      </c>
-      <c r="H18" s="100" t="s">
-        <v>124</v>
       </c>
       <c r="I18" s="96">
         <v>4</v>
@@ -3279,19 +3278,19 @@
         <v>1</v>
       </c>
       <c r="D19" s="81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E19" s="92" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="99" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="99" t="s">
-        <v>126</v>
-      </c>
       <c r="G19" s="100" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H19" s="95" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I19" s="96">
         <v>4</v>
@@ -3332,19 +3331,19 @@
         <v>1</v>
       </c>
       <c r="D20" s="81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E20" s="92" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="99" t="s">
         <v>127</v>
       </c>
-      <c r="F20" s="99" t="s">
-        <v>128</v>
-      </c>
       <c r="G20" s="95" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H20" s="95" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I20" s="96">
         <v>24</v>
@@ -3385,19 +3384,19 @@
         <v>1</v>
       </c>
       <c r="D21" s="81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E21" s="92" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" s="99" t="s">
         <v>129</v>
       </c>
-      <c r="F21" s="99" t="s">
-        <v>130</v>
-      </c>
       <c r="G21" s="95" t="s">
+        <v>115</v>
+      </c>
+      <c r="H21" s="95" t="s">
         <v>116</v>
-      </c>
-      <c r="H21" s="95" t="s">
-        <v>117</v>
       </c>
       <c r="I21" s="96">
         <v>3</v>
@@ -3438,19 +3437,19 @@
         <v>1</v>
       </c>
       <c r="D22" s="81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E22" s="92" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" s="99" t="s">
         <v>131</v>
       </c>
-      <c r="F22" s="99" t="s">
-        <v>132</v>
-      </c>
       <c r="G22" s="95" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H22" s="95" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I22" s="96">
         <v>24</v>
@@ -3491,19 +3490,19 @@
         <v>1</v>
       </c>
       <c r="D23" s="81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E23" s="92" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="99" t="s">
         <v>133</v>
       </c>
-      <c r="F23" s="99" t="s">
-        <v>134</v>
-      </c>
       <c r="G23" s="100" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H23" s="100" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I23" s="96">
         <v>1</v>
@@ -3542,19 +3541,19 @@
         <v>1</v>
       </c>
       <c r="D24" s="81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E24" s="92" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" s="99" t="s">
         <v>135</v>
       </c>
-      <c r="F24" s="99" t="s">
-        <v>136</v>
-      </c>
       <c r="G24" s="95" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H24" s="95" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I24" s="96">
         <v>1</v>
@@ -3624,13 +3623,13 @@
         <v>2</v>
       </c>
       <c r="D26" s="81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E26" s="89" t="s">
         <v>111</v>
       </c>
       <c r="F26" s="91" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G26" s="83" t="s">
         <v>91</v>
@@ -3659,13 +3658,13 @@
         <v>2</v>
       </c>
       <c r="D27" s="81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E27" s="85" t="s">
         <v>100</v>
       </c>
       <c r="F27" s="109" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G27" s="83" t="s">
         <v>91</v>
@@ -3702,13 +3701,13 @@
         <v>2</v>
       </c>
       <c r="D28" s="81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E28" s="89" t="s">
         <v>102</v>
       </c>
       <c r="F28" s="82" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G28" s="81" t="s">
         <v>91</v>
@@ -3743,13 +3742,13 @@
         <v>2</v>
       </c>
       <c r="D29" s="81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E29" s="89" t="s">
         <v>103</v>
       </c>
       <c r="F29" s="90" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G29" s="81" t="s">
         <v>91</v>
@@ -3786,13 +3785,13 @@
         <v>2</v>
       </c>
       <c r="D30" s="81" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="E30" s="89" t="s">
-        <v>140</v>
-      </c>
       <c r="F30" s="91" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G30" s="81" t="s">
         <v>91</v>
@@ -3829,13 +3828,13 @@
         <v>2</v>
       </c>
       <c r="D31" s="81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E31" s="89" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F31" s="91" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G31" s="81" t="s">
         <v>91</v>
@@ -3872,13 +3871,13 @@
         <v>2</v>
       </c>
       <c r="D32" s="81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E32" s="89" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F32" s="91" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G32" s="81" t="s">
         <v>91</v>
@@ -3915,13 +3914,13 @@
         <v>2</v>
       </c>
       <c r="D33" s="81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E33" s="89" t="s">
+        <v>142</v>
+      </c>
+      <c r="F33" s="91" t="s">
         <v>143</v>
-      </c>
-      <c r="F33" s="91" t="s">
-        <v>144</v>
       </c>
       <c r="G33" s="81" t="s">
         <v>91</v>
@@ -3958,19 +3957,19 @@
         <v>2</v>
       </c>
       <c r="D34" s="81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E34" s="110" t="s">
+        <v>167</v>
+      </c>
+      <c r="F34" s="99" t="s">
         <v>114</v>
       </c>
-      <c r="F34" s="99" t="s">
+      <c r="G34" s="100" t="s">
         <v>115</v>
       </c>
-      <c r="G34" s="100" t="s">
+      <c r="H34" s="95" t="s">
         <v>116</v>
-      </c>
-      <c r="H34" s="95" t="s">
-        <v>117</v>
       </c>
       <c r="I34" s="96">
         <v>24</v>
@@ -4009,13 +4008,13 @@
         <v>2</v>
       </c>
       <c r="D35" s="81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E35" s="89" t="s">
         <v>106</v>
       </c>
       <c r="F35" s="90" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G35" s="83" t="s">
         <v>91</v>
@@ -4052,13 +4051,13 @@
         <v>2</v>
       </c>
       <c r="D36" s="81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E36" s="89" t="s">
         <v>107</v>
       </c>
       <c r="F36" s="90" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G36" s="83" t="s">
         <v>91</v>
@@ -4095,13 +4094,13 @@
         <v>2</v>
       </c>
       <c r="D37" s="81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E37" s="89" t="s">
         <v>109</v>
       </c>
       <c r="F37" s="90" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G37" s="81" t="s">
         <v>91</v>
@@ -4136,13 +4135,13 @@
         <v>2</v>
       </c>
       <c r="D38" s="81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E38" s="89" t="s">
         <v>110</v>
       </c>
       <c r="F38" s="90" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G38" s="83" t="s">
         <v>91</v>
@@ -4170,7 +4169,7 @@
     </row>
     <row r="39" spans="1:27" s="118" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="116" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B39" s="117"/>
       <c r="C39" s="117">
@@ -5331,7 +5330,7 @@
       </c>
       <c r="C9" s="17">
         <f ca="1">TODAY()</f>
-        <v>43467</v>
+        <v>43480</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="18"/>
@@ -6565,8 +6564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D6B899-AAB1-4AEF-8557-8A883BA60EEE}">
   <dimension ref="A1:AJ28"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7709,7 +7708,7 @@
       </c>
       <c r="C9" s="17">
         <f ca="1">TODAY()</f>
-        <v>43467</v>
+        <v>43480</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="18"/>
@@ -8318,7 +8317,7 @@
         <v>50</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F15" s="44"/>
       <c r="G15" s="44"/>
